--- a/CSV-Reconcile_Process/Examples/ADC/Reconciled/matched_reconciliation.xlsx
+++ b/CSV-Reconcile_Process/Examples/ADC/Reconciled/matched_reconciliation.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/USDA HD/NAL/MyGitFolder/Reconciliation_Project/CSV-Reconcile_Process/Examples/ADC/Reconciled/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33549786-3D8C-8A48-8CCE-88CF5886BB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="22360" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Perfect Matches" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Perfect Matches'!$A$1:$E$1</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1204,8 +1213,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1281,6 +1290,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1327,7 +1344,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1359,9 +1376,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1393,6 +1428,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1568,14 +1621,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1592,7 +1653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1609,7 +1670,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1626,7 +1687,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1643,7 +1704,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1660,7 +1721,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1677,7 +1738,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1694,7 +1755,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1711,7 +1772,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1728,7 +1789,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1745,7 +1806,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1762,7 +1823,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1779,7 +1840,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1796,7 +1857,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1813,7 +1874,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1830,7 +1891,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1847,7 +1908,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1864,7 +1925,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1881,7 +1942,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1898,7 +1959,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1915,7 +1976,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1932,7 +1993,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1949,7 +2010,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1966,7 +2027,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1983,7 +2044,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2000,7 +2061,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2017,7 +2078,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2034,7 +2095,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2051,7 +2112,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2068,7 +2129,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2085,7 +2146,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -2102,7 +2163,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -2119,7 +2180,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -2136,7 +2197,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -2153,7 +2214,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -2170,7 +2231,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -2187,7 +2248,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -2204,7 +2265,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -2221,7 +2282,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -2238,7 +2299,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -2255,7 +2316,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -2272,7 +2333,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -2289,7 +2350,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -2306,7 +2367,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -2323,7 +2384,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -2340,7 +2401,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2357,7 +2418,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2374,7 +2435,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2391,7 +2452,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2408,7 +2469,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2425,7 +2486,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2442,7 +2503,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2459,7 +2520,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2476,7 +2537,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -2493,7 +2554,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2510,7 +2571,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -2527,7 +2588,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -2544,7 +2605,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -2561,7 +2622,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -2578,7 +2639,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2595,7 +2656,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2612,7 +2673,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2629,7 +2690,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -2646,7 +2707,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -2663,7 +2724,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -2680,7 +2741,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -2697,7 +2758,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -2714,7 +2775,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -2731,7 +2792,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -2748,7 +2809,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -2765,7 +2826,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -2782,7 +2843,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -2799,7 +2860,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -2816,7 +2877,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -2833,7 +2894,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -2850,7 +2911,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -2867,7 +2928,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -2884,7 +2945,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -2901,7 +2962,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -2918,7 +2979,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -2935,7 +2996,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -2952,7 +3013,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -2969,7 +3030,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -2986,7 +3047,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -3003,7 +3064,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>81</v>
       </c>
@@ -3020,7 +3081,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -3037,7 +3098,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -3054,7 +3115,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>83</v>
       </c>
@@ -3071,7 +3132,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>84</v>
       </c>
@@ -3088,7 +3149,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>22</v>
       </c>
@@ -3105,7 +3166,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>85</v>
       </c>
@@ -3122,7 +3183,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>86</v>
       </c>
@@ -3139,7 +3200,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -3156,7 +3217,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>88</v>
       </c>
@@ -3173,7 +3234,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>89</v>
       </c>
@@ -3190,7 +3251,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>80</v>
       </c>
@@ -3207,7 +3268,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>90</v>
       </c>
@@ -3224,7 +3285,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>91</v>
       </c>
@@ -3241,7 +3302,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>92</v>
       </c>
@@ -3258,7 +3319,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>93</v>
       </c>
@@ -3275,7 +3336,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>94</v>
       </c>
@@ -3292,7 +3353,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>95</v>
       </c>
@@ -3309,7 +3370,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>96</v>
       </c>
@@ -3326,7 +3387,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>97</v>
       </c>
@@ -3343,7 +3404,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>98</v>
       </c>
@@ -3360,7 +3421,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>99</v>
       </c>
@@ -3377,7 +3438,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>14</v>
       </c>
@@ -3394,7 +3455,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>98</v>
       </c>
@@ -3411,7 +3472,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>99</v>
       </c>
@@ -3428,7 +3489,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>100</v>
       </c>
@@ -3445,7 +3506,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>101</v>
       </c>
@@ -3462,7 +3523,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>17</v>
       </c>
@@ -3479,7 +3540,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>102</v>
       </c>
@@ -3496,7 +3557,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>103</v>
       </c>
@@ -3513,7 +3574,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>104</v>
       </c>
@@ -3530,7 +3591,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>105</v>
       </c>
@@ -3547,7 +3608,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>106</v>
       </c>
@@ -3564,7 +3625,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>107</v>
       </c>
@@ -3581,7 +3642,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>108</v>
       </c>
@@ -3598,7 +3659,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>109</v>
       </c>
@@ -3615,7 +3676,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>110</v>
       </c>
@@ -3632,7 +3693,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>111</v>
       </c>
@@ -3649,7 +3710,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>112</v>
       </c>
@@ -3666,7 +3727,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>113</v>
       </c>
@@ -3683,7 +3744,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>114</v>
       </c>
@@ -3700,7 +3761,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>115</v>
       </c>
@@ -3717,7 +3778,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>116</v>
       </c>
@@ -3734,7 +3795,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>117</v>
       </c>
@@ -3751,7 +3812,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>118</v>
       </c>
@@ -3768,7 +3829,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>119</v>
       </c>
@@ -3785,7 +3846,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>120</v>
       </c>
@@ -3802,7 +3863,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>119</v>
       </c>
@@ -3819,7 +3880,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>121</v>
       </c>
@@ -3836,7 +3897,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>122</v>
       </c>
@@ -3853,7 +3914,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>123</v>
       </c>
@@ -3870,7 +3931,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>124</v>
       </c>
@@ -3887,7 +3948,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>125</v>
       </c>
@@ -3904,7 +3965,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>13</v>
       </c>
@@ -3921,7 +3982,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>126</v>
       </c>
@@ -3938,7 +3999,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>20</v>
       </c>
@@ -3955,7 +4016,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>127</v>
       </c>
@@ -3972,7 +4033,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>126</v>
       </c>
@@ -3989,7 +4050,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>128</v>
       </c>
@@ -4006,7 +4067,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>129</v>
       </c>
@@ -4023,7 +4084,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>130</v>
       </c>
@@ -4040,7 +4101,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>131</v>
       </c>
@@ -4057,7 +4118,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>132</v>
       </c>
@@ -4074,7 +4135,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>133</v>
       </c>
@@ -4091,7 +4152,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>134</v>
       </c>
@@ -4108,7 +4169,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>135</v>
       </c>
@@ -4125,7 +4186,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>136</v>
       </c>
@@ -4142,7 +4203,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>137</v>
       </c>
@@ -4159,7 +4220,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>138</v>
       </c>
@@ -4176,7 +4237,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>139</v>
       </c>
@@ -4193,7 +4254,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>140</v>
       </c>
@@ -4210,7 +4271,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>141</v>
       </c>
@@ -4227,7 +4288,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>142</v>
       </c>
@@ -4244,7 +4305,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>143</v>
       </c>
@@ -4261,7 +4322,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>144</v>
       </c>
@@ -4278,7 +4339,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>145</v>
       </c>
@@ -4295,7 +4356,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>146</v>
       </c>
@@ -4312,7 +4373,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>147</v>
       </c>
@@ -4329,7 +4390,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>148</v>
       </c>
@@ -4346,7 +4407,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>149</v>
       </c>
@@ -4363,7 +4424,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>150</v>
       </c>
@@ -4380,7 +4441,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>151</v>
       </c>
@@ -4397,7 +4458,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>152</v>
       </c>
@@ -4414,7 +4475,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>153</v>
       </c>
@@ -4431,7 +4492,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>154</v>
       </c>
@@ -4448,7 +4509,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>155</v>
       </c>
@@ -4465,7 +4526,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>156</v>
       </c>
@@ -4482,7 +4543,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>157</v>
       </c>
@@ -4499,7 +4560,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>158</v>
       </c>
@@ -4516,7 +4577,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>159</v>
       </c>
@@ -4533,7 +4594,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>160</v>
       </c>
@@ -4550,7 +4611,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>161</v>
       </c>
@@ -4567,7 +4628,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>162</v>
       </c>
@@ -4584,7 +4645,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>163</v>
       </c>
@@ -4601,7 +4662,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>164</v>
       </c>
@@ -4618,7 +4679,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>165</v>
       </c>
@@ -4635,7 +4696,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>166</v>
       </c>
@@ -4652,7 +4713,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>167</v>
       </c>
@@ -4669,7 +4730,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>168</v>
       </c>
@@ -4686,7 +4747,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>169</v>
       </c>
@@ -4703,7 +4764,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>170</v>
       </c>
@@ -4720,7 +4781,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>164</v>
       </c>
@@ -4737,7 +4798,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>171</v>
       </c>
@@ -4754,7 +4815,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>172</v>
       </c>
@@ -4771,7 +4832,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>173</v>
       </c>
@@ -4788,7 +4849,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>174</v>
       </c>
@@ -4805,7 +4866,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>175</v>
       </c>
@@ -4822,7 +4883,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>176</v>
       </c>
@@ -4839,7 +4900,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>177</v>
       </c>
@@ -4856,7 +4917,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>178</v>
       </c>
@@ -4873,7 +4934,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>179</v>
       </c>
@@ -4890,7 +4951,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>180</v>
       </c>
@@ -4907,7 +4968,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>181</v>
       </c>
@@ -4924,7 +4985,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>182</v>
       </c>
@@ -4941,7 +5002,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>183</v>
       </c>
@@ -4958,7 +5019,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>184</v>
       </c>
@@ -4975,7 +5036,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>185</v>
       </c>
@@ -4992,7 +5053,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>186</v>
       </c>
@@ -5009,7 +5070,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>187</v>
       </c>
@@ -5026,7 +5087,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>188</v>
       </c>
@@ -5043,7 +5104,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>25</v>
       </c>
@@ -5060,7 +5121,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>81</v>
       </c>
@@ -5077,7 +5138,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>189</v>
       </c>
@@ -5094,7 +5155,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>190</v>
       </c>
@@ -5111,7 +5172,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>191</v>
       </c>
@@ -5128,7 +5189,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>192</v>
       </c>
@@ -5145,7 +5206,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>69</v>
       </c>
@@ -5162,7 +5223,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>126</v>
       </c>
@@ -5179,7 +5240,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>193</v>
       </c>
@@ -5196,7 +5257,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>194</v>
       </c>
@@ -5213,7 +5274,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>195</v>
       </c>
@@ -5230,7 +5291,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>196</v>
       </c>
@@ -5247,7 +5308,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>197</v>
       </c>
@@ -5264,7 +5325,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>198</v>
       </c>
@@ -5282,224 +5343,225 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
-    <hyperlink ref="E9" r:id="rId8"/>
-    <hyperlink ref="E10" r:id="rId9"/>
-    <hyperlink ref="E11" r:id="rId10"/>
-    <hyperlink ref="E12" r:id="rId11"/>
-    <hyperlink ref="E13" r:id="rId12"/>
-    <hyperlink ref="E14" r:id="rId13"/>
-    <hyperlink ref="E15" r:id="rId14"/>
-    <hyperlink ref="E16" r:id="rId15"/>
-    <hyperlink ref="E17" r:id="rId16"/>
-    <hyperlink ref="E18" r:id="rId17"/>
-    <hyperlink ref="E19" r:id="rId18"/>
-    <hyperlink ref="E20" r:id="rId19"/>
-    <hyperlink ref="E21" r:id="rId20"/>
-    <hyperlink ref="E22" r:id="rId21"/>
-    <hyperlink ref="E23" r:id="rId22"/>
-    <hyperlink ref="E24" r:id="rId23"/>
-    <hyperlink ref="E25" r:id="rId24"/>
-    <hyperlink ref="E26" r:id="rId25"/>
-    <hyperlink ref="E27" r:id="rId26"/>
-    <hyperlink ref="E28" r:id="rId27"/>
-    <hyperlink ref="E29" r:id="rId28"/>
-    <hyperlink ref="E30" r:id="rId29"/>
-    <hyperlink ref="E31" r:id="rId30"/>
-    <hyperlink ref="E32" r:id="rId31"/>
-    <hyperlink ref="E33" r:id="rId32"/>
-    <hyperlink ref="E34" r:id="rId33"/>
-    <hyperlink ref="E35" r:id="rId34"/>
-    <hyperlink ref="E36" r:id="rId35"/>
-    <hyperlink ref="E37" r:id="rId36"/>
-    <hyperlink ref="E38" r:id="rId37"/>
-    <hyperlink ref="E39" r:id="rId38"/>
-    <hyperlink ref="E40" r:id="rId39"/>
-    <hyperlink ref="E41" r:id="rId40"/>
-    <hyperlink ref="E42" r:id="rId41"/>
-    <hyperlink ref="E43" r:id="rId42"/>
-    <hyperlink ref="E44" r:id="rId43"/>
-    <hyperlink ref="E45" r:id="rId44"/>
-    <hyperlink ref="E46" r:id="rId45"/>
-    <hyperlink ref="E47" r:id="rId46"/>
-    <hyperlink ref="E48" r:id="rId47"/>
-    <hyperlink ref="E49" r:id="rId48"/>
-    <hyperlink ref="E50" r:id="rId49"/>
-    <hyperlink ref="E51" r:id="rId50"/>
-    <hyperlink ref="E52" r:id="rId51"/>
-    <hyperlink ref="E53" r:id="rId52"/>
-    <hyperlink ref="E54" r:id="rId53"/>
-    <hyperlink ref="E55" r:id="rId54"/>
-    <hyperlink ref="E56" r:id="rId55"/>
-    <hyperlink ref="E57" r:id="rId56"/>
-    <hyperlink ref="E58" r:id="rId57"/>
-    <hyperlink ref="E59" r:id="rId58"/>
-    <hyperlink ref="E60" r:id="rId59"/>
-    <hyperlink ref="E61" r:id="rId60"/>
-    <hyperlink ref="E62" r:id="rId61"/>
-    <hyperlink ref="E63" r:id="rId62"/>
-    <hyperlink ref="E64" r:id="rId63"/>
-    <hyperlink ref="E65" r:id="rId64"/>
-    <hyperlink ref="E66" r:id="rId65"/>
-    <hyperlink ref="E67" r:id="rId66"/>
-    <hyperlink ref="E68" r:id="rId67"/>
-    <hyperlink ref="E69" r:id="rId68"/>
-    <hyperlink ref="E70" r:id="rId69"/>
-    <hyperlink ref="E71" r:id="rId70"/>
-    <hyperlink ref="E72" r:id="rId71"/>
-    <hyperlink ref="E73" r:id="rId72"/>
-    <hyperlink ref="E74" r:id="rId73"/>
-    <hyperlink ref="E75" r:id="rId74"/>
-    <hyperlink ref="E76" r:id="rId75"/>
-    <hyperlink ref="E77" r:id="rId76"/>
-    <hyperlink ref="E78" r:id="rId77"/>
-    <hyperlink ref="E79" r:id="rId78"/>
-    <hyperlink ref="E80" r:id="rId79"/>
-    <hyperlink ref="E81" r:id="rId80"/>
-    <hyperlink ref="E82" r:id="rId81"/>
-    <hyperlink ref="E83" r:id="rId82"/>
-    <hyperlink ref="E84" r:id="rId83"/>
-    <hyperlink ref="E85" r:id="rId84"/>
-    <hyperlink ref="E86" r:id="rId85"/>
-    <hyperlink ref="E87" r:id="rId86"/>
-    <hyperlink ref="E88" r:id="rId87"/>
-    <hyperlink ref="E89" r:id="rId88"/>
-    <hyperlink ref="E90" r:id="rId89"/>
-    <hyperlink ref="E91" r:id="rId90"/>
-    <hyperlink ref="E92" r:id="rId91"/>
-    <hyperlink ref="E93" r:id="rId92"/>
-    <hyperlink ref="E94" r:id="rId93"/>
-    <hyperlink ref="E95" r:id="rId94"/>
-    <hyperlink ref="E96" r:id="rId95"/>
-    <hyperlink ref="E97" r:id="rId96"/>
-    <hyperlink ref="E98" r:id="rId97"/>
-    <hyperlink ref="E99" r:id="rId98"/>
-    <hyperlink ref="E100" r:id="rId99"/>
-    <hyperlink ref="E101" r:id="rId100"/>
-    <hyperlink ref="E102" r:id="rId101"/>
-    <hyperlink ref="E103" r:id="rId102"/>
-    <hyperlink ref="E104" r:id="rId103"/>
-    <hyperlink ref="E105" r:id="rId104"/>
-    <hyperlink ref="E106" r:id="rId105"/>
-    <hyperlink ref="E107" r:id="rId106"/>
-    <hyperlink ref="E108" r:id="rId107"/>
-    <hyperlink ref="E109" r:id="rId108"/>
-    <hyperlink ref="E110" r:id="rId109"/>
-    <hyperlink ref="E111" r:id="rId110"/>
-    <hyperlink ref="E112" r:id="rId111"/>
-    <hyperlink ref="E113" r:id="rId112"/>
-    <hyperlink ref="E114" r:id="rId113"/>
-    <hyperlink ref="E115" r:id="rId114"/>
-    <hyperlink ref="E116" r:id="rId115"/>
-    <hyperlink ref="E117" r:id="rId116"/>
-    <hyperlink ref="E118" r:id="rId117"/>
-    <hyperlink ref="E119" r:id="rId118"/>
-    <hyperlink ref="E120" r:id="rId119"/>
-    <hyperlink ref="E121" r:id="rId120"/>
-    <hyperlink ref="E122" r:id="rId121"/>
-    <hyperlink ref="E123" r:id="rId122"/>
-    <hyperlink ref="E124" r:id="rId123"/>
-    <hyperlink ref="E125" r:id="rId124"/>
-    <hyperlink ref="E126" r:id="rId125"/>
-    <hyperlink ref="E127" r:id="rId126"/>
-    <hyperlink ref="E128" r:id="rId127"/>
-    <hyperlink ref="E129" r:id="rId128"/>
-    <hyperlink ref="E130" r:id="rId129"/>
-    <hyperlink ref="E131" r:id="rId130"/>
-    <hyperlink ref="E132" r:id="rId131"/>
-    <hyperlink ref="E133" r:id="rId132"/>
-    <hyperlink ref="E134" r:id="rId133"/>
-    <hyperlink ref="E135" r:id="rId134"/>
-    <hyperlink ref="E136" r:id="rId135"/>
-    <hyperlink ref="E137" r:id="rId136"/>
-    <hyperlink ref="E138" r:id="rId137"/>
-    <hyperlink ref="E139" r:id="rId138"/>
-    <hyperlink ref="E140" r:id="rId139"/>
-    <hyperlink ref="E141" r:id="rId140"/>
-    <hyperlink ref="E142" r:id="rId141"/>
-    <hyperlink ref="E143" r:id="rId142"/>
-    <hyperlink ref="E144" r:id="rId143"/>
-    <hyperlink ref="E145" r:id="rId144"/>
-    <hyperlink ref="E146" r:id="rId145"/>
-    <hyperlink ref="E147" r:id="rId146"/>
-    <hyperlink ref="E148" r:id="rId147"/>
-    <hyperlink ref="E149" r:id="rId148"/>
-    <hyperlink ref="E150" r:id="rId149"/>
-    <hyperlink ref="E151" r:id="rId150"/>
-    <hyperlink ref="E152" r:id="rId151"/>
-    <hyperlink ref="E153" r:id="rId152"/>
-    <hyperlink ref="E154" r:id="rId153"/>
-    <hyperlink ref="E155" r:id="rId154"/>
-    <hyperlink ref="E156" r:id="rId155"/>
-    <hyperlink ref="E157" r:id="rId156"/>
-    <hyperlink ref="E158" r:id="rId157"/>
-    <hyperlink ref="E159" r:id="rId158"/>
-    <hyperlink ref="E160" r:id="rId159"/>
-    <hyperlink ref="E161" r:id="rId160"/>
-    <hyperlink ref="E162" r:id="rId161"/>
-    <hyperlink ref="E163" r:id="rId162"/>
-    <hyperlink ref="E164" r:id="rId163"/>
-    <hyperlink ref="E165" r:id="rId164"/>
-    <hyperlink ref="E166" r:id="rId165"/>
-    <hyperlink ref="E167" r:id="rId166"/>
-    <hyperlink ref="E168" r:id="rId167"/>
-    <hyperlink ref="E169" r:id="rId168"/>
-    <hyperlink ref="E170" r:id="rId169"/>
-    <hyperlink ref="E171" r:id="rId170"/>
-    <hyperlink ref="E172" r:id="rId171"/>
-    <hyperlink ref="E173" r:id="rId172"/>
-    <hyperlink ref="E174" r:id="rId173"/>
-    <hyperlink ref="E175" r:id="rId174"/>
-    <hyperlink ref="E176" r:id="rId175"/>
-    <hyperlink ref="E177" r:id="rId176"/>
-    <hyperlink ref="E178" r:id="rId177"/>
-    <hyperlink ref="E179" r:id="rId178"/>
-    <hyperlink ref="E180" r:id="rId179"/>
-    <hyperlink ref="E181" r:id="rId180"/>
-    <hyperlink ref="E182" r:id="rId181"/>
-    <hyperlink ref="E183" r:id="rId182"/>
-    <hyperlink ref="E184" r:id="rId183"/>
-    <hyperlink ref="E185" r:id="rId184"/>
-    <hyperlink ref="E186" r:id="rId185"/>
-    <hyperlink ref="E187" r:id="rId186"/>
-    <hyperlink ref="E188" r:id="rId187"/>
-    <hyperlink ref="E189" r:id="rId188"/>
-    <hyperlink ref="E190" r:id="rId189"/>
-    <hyperlink ref="E191" r:id="rId190"/>
-    <hyperlink ref="E192" r:id="rId191"/>
-    <hyperlink ref="E193" r:id="rId192"/>
-    <hyperlink ref="E194" r:id="rId193"/>
-    <hyperlink ref="E195" r:id="rId194"/>
-    <hyperlink ref="E196" r:id="rId195"/>
-    <hyperlink ref="E197" r:id="rId196"/>
-    <hyperlink ref="E198" r:id="rId197"/>
-    <hyperlink ref="E199" r:id="rId198"/>
-    <hyperlink ref="E200" r:id="rId199"/>
-    <hyperlink ref="E201" r:id="rId200"/>
-    <hyperlink ref="E202" r:id="rId201"/>
-    <hyperlink ref="E203" r:id="rId202"/>
-    <hyperlink ref="E204" r:id="rId203"/>
-    <hyperlink ref="E205" r:id="rId204"/>
-    <hyperlink ref="E206" r:id="rId205"/>
-    <hyperlink ref="E207" r:id="rId206"/>
-    <hyperlink ref="E208" r:id="rId207"/>
-    <hyperlink ref="E209" r:id="rId208"/>
-    <hyperlink ref="E210" r:id="rId209"/>
-    <hyperlink ref="E211" r:id="rId210"/>
-    <hyperlink ref="E212" r:id="rId211"/>
-    <hyperlink ref="E213" r:id="rId212"/>
-    <hyperlink ref="E214" r:id="rId213"/>
-    <hyperlink ref="E215" r:id="rId214"/>
-    <hyperlink ref="E216" r:id="rId215"/>
-    <hyperlink ref="E217" r:id="rId216"/>
-    <hyperlink ref="E218" r:id="rId217"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="E42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="E47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="E48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="E49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="E51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="E53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="E54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="E56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="E57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="E58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="E60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="E62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="E64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="E65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="E66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="E68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="E69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="E70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="E71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="E72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="E74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="E75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="E76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="E77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="E78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="E79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="E80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="E82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="E87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="E88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="E89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="E90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="E92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="E93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="E94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="E95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="E96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="E98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="E99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="E100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="E101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="E102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="E103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="E104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="E105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="E106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="E107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="E108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="E109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="E110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="E111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="E112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="E113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="E114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="E115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="E116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="E117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="E118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="E119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="E120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="E121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="E122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="E123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="E124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="E125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="E126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="E127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="E128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="E129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="E130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="E131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="E132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="E133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="E134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="E135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="E136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="E137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="E138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="E139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="E140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="E141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="E142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="E143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="E144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="E145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="E146" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="E147" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="E148" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="E149" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="E150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="E151" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="E152" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="E153" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="E154" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="E155" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="E156" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="E157" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="E158" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="E159" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="E160" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="E161" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="E162" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="E163" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="E164" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="E165" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="E166" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="E167" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="E168" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="E169" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="E170" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="E171" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="E172" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="E173" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="E174" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="E175" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="E176" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="E177" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="E178" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="E179" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="E180" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="E181" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="E182" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="E183" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="E184" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="E185" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="E186" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="E187" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="E188" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="E189" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="E190" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="E191" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="E192" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="E193" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="E194" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="E195" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="E196" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="E197" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="E198" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="E199" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="E200" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="E201" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="E202" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="E203" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="E204" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="E205" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="E206" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="E207" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="E208" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="E209" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="E210" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="E211" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="E212" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="E213" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="E214" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="E215" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="E216" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="E217" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="E218" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
